--- a/controllersexportdata.xlsx
+++ b/controllersexportdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +490,7 @@
         <v>645c58c395fa260b4faee622</v>
       </c>
       <c r="C2" t="str">
-        <v>2023-05-11T00:00:00.000Z</v>
+        <v>2023-05-10T17:00:00.000Z</v>
       </c>
       <c r="D2" t="str">
         <v>Jerome</v>
@@ -526,7 +526,7 @@
         <v>10:10</v>
       </c>
       <c r="O2" t="str">
-        <v>Diterima</v>
+        <v>Dialihkan</v>
       </c>
       <c r="P2" t="str">
         <v>10:01</v>
@@ -556,7 +556,7 @@
         <v>2023-05-11T02:53:55.458Z</v>
       </c>
       <c r="Y2" t="str">
-        <v>2023-05-31T05:11:43.877Z</v>
+        <v>2023-06-11T11:06:03.349Z</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>646c1e1b13ee921367e97e77</v>
       </c>
       <c r="C3" t="str">
-        <v>2023-05-23T00:00:00.000Z</v>
+        <v>2023-05-22T17:00:00.000Z</v>
       </c>
       <c r="D3" t="str">
         <v>Maguire</v>
@@ -606,7 +606,7 @@
         <v/>
       </c>
       <c r="O3" t="str">
-        <v>Diterima</v>
+        <v>Ditunda</v>
       </c>
       <c r="P3" t="str">
         <v>13:14</v>
@@ -636,7 +636,7 @@
         <v>2023-05-23T01:59:55.130Z</v>
       </c>
       <c r="Y3" t="str">
-        <v>2023-05-23T01:59:55.130Z</v>
+        <v>2023-06-11T11:05:31.405Z</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -722,9 +722,89 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Wa</v>
+      </c>
+      <c r="B5" t="str">
+        <v>6483c04f7e675e6d94288f1b</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2023-06-10T00:00:00.000Z</v>
+      </c>
+      <c r="D5" t="str">
+        <v>joker</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Pria</v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve">Rumah Sakit Loteng </v>
+      </c>
+      <c r="H5" t="str">
+        <v>Dr.Roni</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Operasi Otak</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" t="str">
+        <v xml:space="preserve">Alat operasi </v>
+      </c>
+      <c r="L5" t="str">
+        <v>P2</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Dr.Hadi</v>
+      </c>
+      <c r="N5" t="str">
+        <v>07:20</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Diterima</v>
+      </c>
+      <c r="P5" t="str">
+        <v>07:15</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>admin</v>
+      </c>
+      <c r="R5" t="str">
+        <v>DPJP</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Advisi dokter konsulan satgas</v>
+      </c>
+      <c r="T5" t="str">
+        <v>07:13</v>
+      </c>
+      <c r="U5" t="str">
+        <v>07:14</v>
+      </c>
+      <c r="V5" t="str">
+        <v>Diagnosa</v>
+      </c>
+      <c r="W5" t="str">
+        <v>Keterangan</v>
+      </c>
+      <c r="X5" t="str">
+        <v>2023-06-10T00:14:07.808Z</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>2023-06-10T00:14:07.808Z</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/controllersexportdata.xlsx
+++ b/controllersexportdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,66 +419,60 @@
         <v>usia</v>
       </c>
       <c r="F1" t="str">
-        <v>jk</v>
+        <v>asal</v>
       </c>
       <c r="G1" t="str">
-        <v>asal</v>
+        <v>dokter</v>
       </c>
       <c r="H1" t="str">
-        <v>dokter</v>
+        <v>rujuk</v>
       </c>
       <c r="I1" t="str">
-        <v>rujuk</v>
+        <v>news</v>
       </c>
       <c r="J1" t="str">
-        <v>news</v>
+        <v>kebutuhan</v>
       </c>
       <c r="K1" t="str">
-        <v>kebutuhan</v>
+        <v>prioritas</v>
       </c>
       <c r="L1" t="str">
-        <v>prioritas</v>
+        <v>knsl</v>
       </c>
       <c r="M1" t="str">
-        <v>knsl</v>
+        <v>status</v>
       </c>
       <c r="N1" t="str">
-        <v>klkpn</v>
+        <v>timingStatus</v>
       </c>
       <c r="O1" t="str">
-        <v>status</v>
+        <v>operator</v>
       </c>
       <c r="P1" t="str">
-        <v>timingStatus</v>
+        <v>dpjp</v>
       </c>
       <c r="Q1" t="str">
-        <v>operator</v>
+        <v>satgas</v>
       </c>
       <c r="R1" t="str">
-        <v>dpjp</v>
+        <v>timingMasuk</v>
       </c>
       <c r="S1" t="str">
-        <v>satgas</v>
+        <v>responTime</v>
       </c>
       <c r="T1" t="str">
-        <v>timingMasuk</v>
+        <v>diagnosa</v>
       </c>
       <c r="U1" t="str">
-        <v>responTime</v>
+        <v>keterangan</v>
       </c>
       <c r="V1" t="str">
-        <v>diagnosa</v>
+        <v>createdAt</v>
       </c>
       <c r="W1" t="str">
-        <v>keterangan</v>
+        <v>updatedAt</v>
       </c>
       <c r="X1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="Z1" t="str">
         <v>__v</v>
       </c>
     </row>
@@ -487,78 +481,72 @@
         <v>Wa</v>
       </c>
       <c r="B2" t="str">
-        <v>645c58c395fa260b4faee622</v>
+        <v>6451ab9d1922a04424968191</v>
       </c>
       <c r="C2" t="str">
-        <v>2023-05-10T17:00:00.000Z</v>
+        <v>2023-05-02T17:00:00.000Z</v>
       </c>
       <c r="D2" t="str">
-        <v>Jerome</v>
+        <v>jordi</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <v>Pria</v>
+        <v>rs selong</v>
       </c>
       <c r="G2" t="str">
-        <v>Rs Selong</v>
+        <v>ahmad</v>
       </c>
       <c r="H2" t="str">
-        <v>Dr.Ahmad</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Alasan dirujuk</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+        <v>alasan rujuk</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2" t="str">
+        <v>kebutuhan</v>
       </c>
       <c r="K2" t="str">
-        <v>Kebutuhan dirujuk</v>
+        <v>p1</v>
       </c>
       <c r="L2" t="str">
-        <v>P1</v>
+        <v>knsl</v>
       </c>
       <c r="M2" t="str">
-        <v>Dr.Hadi</v>
+        <v>Diterima</v>
       </c>
       <c r="N2" t="str">
-        <v>10:10</v>
+        <v>12:05</v>
       </c>
       <c r="O2" t="str">
-        <v>Dialihkan</v>
+        <v>galuh</v>
       </c>
       <c r="P2" t="str">
-        <v>10:01</v>
+        <v>dpjp</v>
       </c>
       <c r="Q2" t="str">
-        <v>admin</v>
+        <v>satgas</v>
       </c>
       <c r="R2" t="str">
-        <v>DPJP</v>
+        <v>12:00</v>
       </c>
       <c r="S2" t="str">
-        <v>Advisi dokter konsulan satgas</v>
+        <v>13:00</v>
       </c>
       <c r="T2" t="str">
-        <v>10:00</v>
+        <v>keterangan</v>
       </c>
       <c r="U2" t="str">
-        <v>10:01</v>
+        <v>keterangan</v>
       </c>
       <c r="V2" t="str">
-        <v>Diagnosa</v>
+        <v>2023-05-03T00:32:29.855Z</v>
       </c>
       <c r="W2" t="str">
-        <v>Keterangan</v>
-      </c>
-      <c r="X2" t="str">
-        <v>2023-05-11T02:53:55.458Z</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>2023-06-11T11:06:03.349Z</v>
-      </c>
-      <c r="Z2">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="X2">
         <v>0</v>
       </c>
     </row>
@@ -567,78 +555,72 @@
         <v>Wa</v>
       </c>
       <c r="B3" t="str">
-        <v>646c1e1b13ee921367e97e77</v>
+        <v>6451ab9d1922a04424968193</v>
       </c>
       <c r="C3" t="str">
-        <v>2023-05-22T17:00:00.000Z</v>
+        <v>2023-05-02T17:00:00.000Z</v>
       </c>
       <c r="D3" t="str">
-        <v>Maguire</v>
+        <v>jordi</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3" t="str">
-        <v>Pria</v>
+        <v>rs selong</v>
       </c>
       <c r="G3" t="str">
-        <v>Rs Selong</v>
+        <v>ahmad</v>
       </c>
       <c r="H3" t="str">
-        <v>Dr.Ahmad</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Alasan dirujuk</v>
-      </c>
-      <c r="J3">
+        <v>alasan rujuk</v>
+      </c>
+      <c r="I3">
         <v>7</v>
       </c>
+      <c r="J3" t="str">
+        <v>kebutuhan</v>
+      </c>
       <c r="K3" t="str">
-        <v>Kebutuhan dirujuk</v>
+        <v>p1</v>
       </c>
       <c r="L3" t="str">
-        <v>P1</v>
+        <v>knsl</v>
       </c>
       <c r="M3" t="str">
-        <v>Dr.Hermawan</v>
+        <v>Diterima</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>12:05</v>
       </c>
       <c r="O3" t="str">
-        <v>Ditunda</v>
+        <v>galuh</v>
       </c>
       <c r="P3" t="str">
-        <v>13:14</v>
+        <v>dpjp</v>
       </c>
       <c r="Q3" t="str">
-        <v>haibar</v>
+        <v>satgas</v>
       </c>
       <c r="R3" t="str">
-        <v>DPJP</v>
+        <v>12:00</v>
       </c>
       <c r="S3" t="str">
-        <v>Advisi dokter konsulan satgas</v>
+        <v>13:00</v>
       </c>
       <c r="T3" t="str">
-        <v>13:13</v>
+        <v>keterangan</v>
       </c>
       <c r="U3" t="str">
-        <v>13:13</v>
+        <v>keterangan</v>
       </c>
       <c r="V3" t="str">
-        <v>Diagnosa</v>
+        <v>2023-05-03T00:32:29.855Z</v>
       </c>
       <c r="W3" t="str">
-        <v>Keterangan</v>
-      </c>
-      <c r="X3" t="str">
-        <v>2023-05-23T01:59:55.130Z</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>2023-06-11T11:05:31.405Z</v>
-      </c>
-      <c r="Z3">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
@@ -647,78 +629,72 @@
         <v>Wa</v>
       </c>
       <c r="B4" t="str">
-        <v>6476d7f813ee921367e97ef5</v>
+        <v>6451ab9d1922a04424968192</v>
       </c>
       <c r="C4" t="str">
-        <v>2023-05-31T00:00:00.000Z</v>
+        <v>2023-05-02T17:00:00.000Z</v>
       </c>
       <c r="D4" t="str">
-        <v>Aldi</v>
+        <v>jordi</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F4" t="str">
-        <v>Pria</v>
+        <v>rs selong</v>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve">Rs Tanjung </v>
+        <v>ahmad</v>
       </c>
       <c r="H4" t="str">
-        <v>Dr herman</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Dirujuk</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
+        <v>alasan rujuk</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4" t="str">
+        <v>kebutuhan</v>
       </c>
       <c r="K4" t="str">
-        <v>Kebutuhan dirujuk</v>
+        <v>p1</v>
       </c>
       <c r="L4" t="str">
-        <v>P1</v>
+        <v>knsl</v>
       </c>
       <c r="M4" t="str">
-        <v>Dr.Hermawan</v>
+        <v>Diterima</v>
       </c>
       <c r="N4" t="str">
-        <v>13:14</v>
+        <v>12:05</v>
       </c>
       <c r="O4" t="str">
-        <v>Diterima</v>
+        <v>galuh</v>
       </c>
       <c r="P4" t="str">
-        <v>13:16</v>
+        <v>dpjp</v>
       </c>
       <c r="Q4" t="str">
-        <v>admin</v>
+        <v>satgas</v>
       </c>
       <c r="R4" t="str">
-        <v>Adivisi dokter</v>
+        <v>12:00</v>
       </c>
       <c r="S4" t="str">
-        <v>Adivis dokter konsulan</v>
+        <v>13:00</v>
       </c>
       <c r="T4" t="str">
-        <v>13:14</v>
+        <v>keterangan</v>
       </c>
       <c r="U4" t="str">
-        <v>13:15</v>
+        <v>keterangan</v>
       </c>
       <c r="V4" t="str">
-        <v>Diagnosa</v>
+        <v>2023-05-03T00:32:29.855Z</v>
       </c>
       <c r="W4" t="str">
-        <v>Keterangan</v>
-      </c>
-      <c r="X4" t="str">
-        <v>2023-05-31T05:15:36.389Z</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>2023-05-31T05:15:36.389Z</v>
-      </c>
-      <c r="Z4">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
@@ -727,84 +703,300 @@
         <v>Wa</v>
       </c>
       <c r="B5" t="str">
-        <v>6483c04f7e675e6d94288f1b</v>
+        <v>6451ab9d1922a04424968194</v>
       </c>
       <c r="C5" t="str">
-        <v>2023-06-10T00:00:00.000Z</v>
+        <v>2023-05-02T17:00:00.000Z</v>
       </c>
       <c r="D5" t="str">
-        <v>joker</v>
+        <v>jordi</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F5" t="str">
-        <v>Pria</v>
+        <v>rs selong</v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve">Rumah Sakit Loteng </v>
+        <v>ahmad</v>
       </c>
       <c r="H5" t="str">
-        <v>Dr.Roni</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Operasi Otak</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
+        <v>alasan rujuk</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5" t="str">
+        <v>kebutuhan</v>
       </c>
       <c r="K5" t="str">
-        <v xml:space="preserve">Alat operasi </v>
+        <v>p1</v>
       </c>
       <c r="L5" t="str">
-        <v>P2</v>
+        <v>knsl</v>
       </c>
       <c r="M5" t="str">
-        <v>Dr.Hadi</v>
+        <v>Diterima</v>
       </c>
       <c r="N5" t="str">
-        <v>07:20</v>
+        <v>12:05</v>
       </c>
       <c r="O5" t="str">
+        <v>galuh</v>
+      </c>
+      <c r="P5" t="str">
+        <v>dpjp</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>satgas</v>
+      </c>
+      <c r="R5" t="str">
+        <v>12:00</v>
+      </c>
+      <c r="S5" t="str">
+        <v>13:00</v>
+      </c>
+      <c r="T5" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="U5" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="V5" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="W5" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Wa</v>
+      </c>
+      <c r="B6" t="str">
+        <v>6451ab9d1922a04424968195</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2023-05-02T17:00:00.000Z</v>
+      </c>
+      <c r="D6" t="str">
+        <v>jordi</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="str">
+        <v>rs selong</v>
+      </c>
+      <c r="G6" t="str">
+        <v>ahmad</v>
+      </c>
+      <c r="H6" t="str">
+        <v>alasan rujuk</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6" t="str">
+        <v>kebutuhan</v>
+      </c>
+      <c r="K6" t="str">
+        <v>p1</v>
+      </c>
+      <c r="L6" t="str">
+        <v>knsl</v>
+      </c>
+      <c r="M6" t="str">
         <v>Diterima</v>
       </c>
-      <c r="P5" t="str">
-        <v>07:15</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>admin</v>
-      </c>
-      <c r="R5" t="str">
-        <v>DPJP</v>
-      </c>
-      <c r="S5" t="str">
-        <v>Advisi dokter konsulan satgas</v>
-      </c>
-      <c r="T5" t="str">
-        <v>07:13</v>
-      </c>
-      <c r="U5" t="str">
-        <v>07:14</v>
-      </c>
-      <c r="V5" t="str">
-        <v>Diagnosa</v>
-      </c>
-      <c r="W5" t="str">
-        <v>Keterangan</v>
-      </c>
-      <c r="X5" t="str">
-        <v>2023-06-10T00:14:07.808Z</v>
-      </c>
-      <c r="Y5" t="str">
-        <v>2023-06-10T00:14:07.808Z</v>
-      </c>
-      <c r="Z5">
+      <c r="N6" t="str">
+        <v>12:05</v>
+      </c>
+      <c r="O6" t="str">
+        <v>galuh</v>
+      </c>
+      <c r="P6" t="str">
+        <v>dpjp</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>satgas</v>
+      </c>
+      <c r="R6" t="str">
+        <v>12:00</v>
+      </c>
+      <c r="S6" t="str">
+        <v>13:00</v>
+      </c>
+      <c r="T6" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="U6" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="V6" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="W6" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Wa</v>
+      </c>
+      <c r="B7" t="str">
+        <v>6451ab9d1922a04424968197</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2023-05-02T17:00:00.000Z</v>
+      </c>
+      <c r="D7" t="str">
+        <v>jordi</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="str">
+        <v>rs selong</v>
+      </c>
+      <c r="G7" t="str">
+        <v>ahmad</v>
+      </c>
+      <c r="H7" t="str">
+        <v>alasan rujuk</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7" t="str">
+        <v>kebutuhan</v>
+      </c>
+      <c r="K7" t="str">
+        <v>p1</v>
+      </c>
+      <c r="L7" t="str">
+        <v>knsl</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Diterima</v>
+      </c>
+      <c r="N7" t="str">
+        <v>12:05</v>
+      </c>
+      <c r="O7" t="str">
+        <v>galuh</v>
+      </c>
+      <c r="P7" t="str">
+        <v>dpjp</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>satgas</v>
+      </c>
+      <c r="R7" t="str">
+        <v>12:00</v>
+      </c>
+      <c r="S7" t="str">
+        <v>13:00</v>
+      </c>
+      <c r="T7" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="U7" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="V7" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="W7" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Wa</v>
+      </c>
+      <c r="B8" t="str">
+        <v>6451ab9d1922a04424968196</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2023-05-02T17:00:00.000Z</v>
+      </c>
+      <c r="D8" t="str">
+        <v>jordi</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" t="str">
+        <v>rs selong</v>
+      </c>
+      <c r="G8" t="str">
+        <v>ahmad</v>
+      </c>
+      <c r="H8" t="str">
+        <v>alasan rujuk</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="str">
+        <v>kebutuhan</v>
+      </c>
+      <c r="K8" t="str">
+        <v>p1</v>
+      </c>
+      <c r="L8" t="str">
+        <v>knsl</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Diterima</v>
+      </c>
+      <c r="N8" t="str">
+        <v>12:05</v>
+      </c>
+      <c r="O8" t="str">
+        <v>galuh</v>
+      </c>
+      <c r="P8" t="str">
+        <v>dpjp</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>satgas</v>
+      </c>
+      <c r="R8" t="str">
+        <v>12:00</v>
+      </c>
+      <c r="S8" t="str">
+        <v>13:00</v>
+      </c>
+      <c r="T8" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="U8" t="str">
+        <v>keterangan</v>
+      </c>
+      <c r="V8" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="W8" t="str">
+        <v>2023-05-03T00:32:29.855Z</v>
+      </c>
+      <c r="X8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X8"/>
   </ignoredErrors>
 </worksheet>
 </file>